--- a/biology/Zoologie/Conus_theodorei/Conus_theodorei.xlsx
+++ b/biology/Zoologie/Conus_theodorei/Conus_theodorei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus theodorei est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 20 mm et 43 mm.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente au large des Bahamas.
 </t>
@@ -576,10 +592,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus theodorei a été décrite pour la première fois en 2000 par le malacologiste américain Edward James Petuch (d) dans « Ruthenica »[1],[2].
-Synonymes
-Conus (Dauciconus) theodorei Petuch, 2000 · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus theodorei a été décrite pour la première fois en 2000 par le malacologiste américain Edward James Petuch (d) dans « Ruthenica »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_theodorei</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_theodorei</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Dauciconus) theodorei Petuch, 2000 · appellation alternative
 Conus (Purpuriconus) theodorei Petuch, 2000 · non accepté
 Purpuriconus theodorei (Petuch, 2000) · non accepté</t>
         </is>
